--- a/uploads/book.xlsx
+++ b/uploads/book.xlsx
@@ -24,7 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Метры</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -357,16 +364,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>42708</v>
-      </c>
-      <c r="B1">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42709</v>
+        <v>42708</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -374,66 +381,74 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42710</v>
+        <v>42709</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42711</v>
+        <v>42710</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42712</v>
+        <v>42711</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>42713</v>
+        <v>42712</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42714</v>
+        <v>42713</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42715</v>
+        <v>42714</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42716</v>
+        <v>42715</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>42716</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>42717</v>
       </c>
-      <c r="B10">
-        <v>12</v>
+      <c r="B11">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/book.xlsx
+++ b/uploads/book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\node proj\plotters\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,7 +74,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -90,9 +90,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -130,7 +130,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -202,7 +202,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,7 +373,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42708</v>
+        <v>42678</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -381,7 +381,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42709</v>
+        <v>42679</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -389,7 +389,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42710</v>
+        <v>42680</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42711</v>
+        <v>42681</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>42712</v>
+        <v>42682</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42713</v>
+        <v>42683</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42714</v>
+        <v>42684</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42715</v>
+        <v>42685</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -437,18 +437,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42716</v>
+        <v>42686</v>
       </c>
       <c r="B10">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42717</v>
-      </c>
-      <c r="B11">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
